--- a/StructureDefinition-onset-time-ext.xlsx
+++ b/StructureDefinition-onset-time-ext.xlsx
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Stroke Onset Time</t>
+    <t>Stroke Symptom Onset Time Extension</t>
   </si>
   <si>
     <t>Status</t>
@@ -84,7 +84,17 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Captures the clock time (value[x] = time) of symptom onset for the indexed stroke event when available, complementing OnsetDateExt to support precise onset-to-treatment intervals. Use local time of the clinical setting; omit if time is unknown or estimated beyond acceptable precision.</t>
+    <t>Extension capturing the **clock time** of symptom onset for the index stroke event.
+**Primary use-cases**
+- Enable precise onset-to-treatment intervals (e.g., onset-to-needle, onset-to-groin puncture).
+- Improve accuracy of eligibility assessments in time-window–dependent interventions.
+**When to use**
+- Use when onset time is known with sufficient precision for clinical use.
+- Omit if time is unknown or too uncertain.
+**FHIR placement**
+- `Condition.extension[onsetTime].valueTime`
+**Implementation note**
+- If `OnsetTimeExt` is present, `OnsetDateExt` should generally also be present (enforced as a warning invariant below).</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/StructureDefinition-onset-time-ext.xlsx
+++ b/StructureDefinition-onset-time-ext.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
